--- a/KM5c_data/IODP_Site_U1387.xlsx
+++ b/KM5c_data/IODP_Site_U1387.xlsx
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="O2">
-        <v>18.47981249</v>
+        <v>18.45</v>
       </c>
       <c r="P2">
-        <v>8.406551149999999</v>
+        <v>8.433762016464843</v>
       </c>
       <c r="Q2">
-        <v>8.739324230000001</v>
+        <v>8.766535096464846</v>
       </c>
       <c r="R2">
         <v>7.553030306666667</v>
